--- a/selangseratus66.xlsx
+++ b/selangseratus66.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -422,27 +422,293 @@
         <v>100</v>
       </c>
       <c r="B3">
-        <v>172618952608</v>
+        <v>198655741973</v>
       </c>
       <c r="C3">
-        <v>0.3473831803475608</v>
+        <v>0.2555043724634702</v>
       </c>
       <c r="D3">
-        <v>0.1872998518978042</v>
+        <v>0.2489773396030421</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="B4">
-        <v>172618952608</v>
+        <v>185512143410</v>
       </c>
       <c r="C4">
-        <v>0.3473831803475608</v>
+        <v>0.3018857251016668</v>
       </c>
       <c r="D4">
-        <v>0.1872998518978042</v>
+        <v>0.349836464076686</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>300</v>
+      </c>
+      <c r="B5">
+        <v>209084109759</v>
+      </c>
+      <c r="C5">
+        <v>0.2187047776972701</v>
+      </c>
+      <c r="D5">
+        <v>0.2411196151250701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>400</v>
+      </c>
+      <c r="B6">
+        <v>163942122098</v>
+      </c>
+      <c r="C6">
+        <v>0.3780016961563603</v>
+      </c>
+      <c r="D6">
+        <v>0.417392569266734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>500</v>
+      </c>
+      <c r="B7">
+        <v>170878693904</v>
+      </c>
+      <c r="C7">
+        <v>0.3535239411782949</v>
+      </c>
+      <c r="D7">
+        <v>0.4203169985760981</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>600</v>
+      </c>
+      <c r="B8">
+        <v>176791442271</v>
+      </c>
+      <c r="C8">
+        <v>0.332659310628414</v>
+      </c>
+      <c r="D8">
+        <v>0.3235873500433178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>700</v>
+      </c>
+      <c r="B9">
+        <v>188461230099</v>
+      </c>
+      <c r="C9">
+        <v>0.2914789963301878</v>
+      </c>
+      <c r="D9">
+        <v>0.420104195129175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>800</v>
+      </c>
+      <c r="B10">
+        <v>189867440409</v>
+      </c>
+      <c r="C10">
+        <v>0.2865167653558571</v>
+      </c>
+      <c r="D10">
+        <v>0.2299088571691139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>900</v>
+      </c>
+      <c r="B11">
+        <v>173416464073</v>
+      </c>
+      <c r="C11">
+        <v>0.3445686649668075</v>
+      </c>
+      <c r="D11">
+        <v>0.3044997738737969</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>1000</v>
+      </c>
+      <c r="B12">
+        <v>168334845005</v>
+      </c>
+      <c r="C12">
+        <v>0.3625009271502949</v>
+      </c>
+      <c r="D12">
+        <v>0.3374377119387189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>1100</v>
+      </c>
+      <c r="B13">
+        <v>199642286396</v>
+      </c>
+      <c r="C13">
+        <v>0.2520230572955413</v>
+      </c>
+      <c r="D13">
+        <v>0.2807783417502606</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>1200</v>
+      </c>
+      <c r="B14">
+        <v>188538058780</v>
+      </c>
+      <c r="C14">
+        <v>0.2912076243237791</v>
+      </c>
+      <c r="D14">
+        <v>0.3092884983768895</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>1300</v>
+      </c>
+      <c r="B15">
+        <v>187494021067</v>
+      </c>
+      <c r="C15">
+        <v>0.2948920808222196</v>
+      </c>
+      <c r="D15">
+        <v>0.3176909063312288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>1400</v>
+      </c>
+      <c r="B16">
+        <v>195012778383</v>
+      </c>
+      <c r="C16">
+        <v>0.2683596520813454</v>
+      </c>
+      <c r="D16">
+        <v>0.2048410885012901</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>1500</v>
+      </c>
+      <c r="B17">
+        <v>184479823707</v>
+      </c>
+      <c r="C17">
+        <v>0.3055283127762614</v>
+      </c>
+      <c r="D17">
+        <v>0.4726087053117585</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>1600</v>
+      </c>
+      <c r="B18">
+        <v>179315955773</v>
+      </c>
+      <c r="C18">
+        <v>0.3237505553323111</v>
+      </c>
+      <c r="D18">
+        <v>0.2973731272483386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>1700</v>
+      </c>
+      <c r="B19">
+        <v>172522202206</v>
+      </c>
+      <c r="C19">
+        <v>0.3477243337270459</v>
+      </c>
+      <c r="D19">
+        <v>0.3216262392243943</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>1800</v>
+      </c>
+      <c r="B20">
+        <v>179428013159</v>
+      </c>
+      <c r="C20">
+        <v>0.3233551275515441</v>
+      </c>
+      <c r="D20">
+        <v>0.2744580228375688</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>1900</v>
+      </c>
+      <c r="B21">
+        <v>181649459456</v>
+      </c>
+      <c r="C21">
+        <v>0.3155163533092813</v>
+      </c>
+      <c r="D21">
+        <v>0.2985344059751736</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>2000</v>
+      </c>
+      <c r="B22">
+        <v>172023436983</v>
+      </c>
+      <c r="C22">
+        <v>0.3494843750257539</v>
+      </c>
+      <c r="D22">
+        <v>0.3520154965465265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>2001</v>
+      </c>
+      <c r="B23">
+        <v>172023436983</v>
+      </c>
+      <c r="C23">
+        <v>0.3494843750257539</v>
+      </c>
+      <c r="D23">
+        <v>0.3520154965465265</v>
       </c>
     </row>
   </sheetData>
